--- a/biology/Botanique/Chapeau_(champignon)/Chapeau_(champignon).xlsx
+++ b/biology/Botanique/Chapeau_(champignon)/Chapeau_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les champignons basidiomycètes et ascomycètes, le chapeau, appelé aussi piléus (du latin pileus, sorte de bonnet phrygien porté par les esclaves), est la partie du sporophore qui renferme les organes de fructification. Il est composé de trois tissus : la cuticule, qui est une membrane de surface, l'hyménophore qui constitue la chair du champignon  et l'hyménium qui produit les spores. Ce dernier peut être lisse, formé de plis, de lames, de tubes ou d'aiguillons.
 Chez de nombreux Basidiomycètes et quelques Ascomycètes, le chapeau est supporté par un organe appelé stipe ou pied du champignon. Ces champignons sont dits stipités[A 1]. Le stipe peut également présenter de nombreux états différents, être muni ou non d'un anneau ou être réduit, voire absent (astipité).
@@ -513,27 +525,134 @@
           <t>Morphologie conique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre types définis ci-dessous, conique simple, umboné, mamelonné et papillé,  peuvent facilement être confondus. De plus, certains champignons peuvent être simplement coniques à l'état jeune mais évoluer en vieillissant vers des faciès différents : umboné, mamelonné ou papillé. L'évolution peut être variable même au sein d'une même espèce. La base du cône — la marge — est aussi très variable et peut évoluer d'infléchie à arrondie et de récurvée à révolutée selon le taux d'humidité ou l'âge du champignon.
-Chapeau conique simple
-On parle de chapeau conique lorsque sa morphologie s'apparente à celle d'un cône[A 2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Morphologie conique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chapeau conique simple</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On parle de chapeau conique lorsque sa morphologie s'apparente à celle d'un cône[A 2].
 Le genre Hygrocybe et parfois des espèces des genres Coprinus et Gliophorus se retrouvent dans ce type.
 	Schéma et exemples de sporophores à chapeau conique simple
 			Chapeau conique 
 			Hygrocybe conica
 			Hygrocybe conica
 			Verpa conica
-Chapeau ogival
-Un chapeau est ogival si sa forme ressemble à une ogive. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Morphologie conique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chapeau ogival</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est ogival si sa forme ressemble à une ogive. 
 On retrouve ces formes chez les genres Mycena, Coprinus et les Panaeolus
 	Schéma et exemples de sporophores à chapeau ogival
 			Chapeau ogival
 			Panaeolus sphinctrinus
 			Gliophorus viridis
 			Lycoperdon pyriforme
-Chapeau ovoïde
-Un chapeau est ovoïde ou ové s'il ressemble à une  forme d'œuf dont la partie la plus large est proximale, soit proche du stipe (pied). Il est parfois appelé campanulé paraboloque
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Morphologie conique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chapeau ovoïde</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est ovoïde ou ové s'il ressemble à une  forme d'œuf dont la partie la plus large est proximale, soit proche du stipe (pied). Il est parfois appelé campanulé paraboloque
 Cette morphologie se rencontre souvent dans le genre Hygrocybe, et parfois dans les genres Coprinus, à l'état jeune et à maturité, et Gliophorus.
 Le genre Amanita présente chez plusieurs de ses espèces, une morphologie ovoïde à l'état jeune, avant de s'étaler à maturité. Plus mûre, l'espèce Amanita ovoidea présente aussi cette morphologie.
 	Schéma et exemples de sporophores à chapeau ovoïde
@@ -541,33 +660,208 @@
 			Amanita jacksonii
 			Coprinopsis variegata (en)
 			Volvariella gloiocephala
-Chapeau piriforme
-On parle de chapeau piriforme lorsque sa morphologie s'apparente à celle d'une poire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Morphologie conique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chapeau piriforme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On parle de chapeau piriforme lorsque sa morphologie s'apparente à celle d'une poire.
 Les membres de la famille des Morchellaceae se retrouvent, entre autres, dans ce type.
 	Exemples de sporophores à chapeau piriforme
 			Morchella elata chapeau piriforme alveolé
 			Panaeolus sphinctrinus chapeau piriforme
-Chapeau galériculé
-On parle de chapeau galériculé lorsque sa morphologie s'apparente à celle d'un casque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Morphologie conique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chapeau galériculé</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On parle de chapeau galériculé lorsque sa morphologie s'apparente à celle d'un casque.
 C'est le cas dans le genre Mycena.
 	Exemples de sporophores à chapeau galériculé
 			Mycena pura
-Chapeau campanulé
-Le chapeau est campanulé quand il présente un morphologie en forme de cloche[A 3], et plus précisément en forme de la fleur de la campanule et non pas campanulé parabolique, plutôt synonyme d'ovoïde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Morphologie conique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chapeau campanulé</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est campanulé quand il présente un morphologie en forme de cloche[A 3], et plus précisément en forme de la fleur de la campanule et non pas campanulé parabolique, plutôt synonyme d'ovoïde.
 Cette morphologie se rencontre dans les genres Cortinarius et Hygrocybe, chez certains Mycènes ou encore des Entolomes du genre Nolanea.
 	Schéma et exemples de sporophores à chapeau campanulé
 			Chapeau campanulé
 			Cortinarius phoeniceus
-Chapeau papillé
-Un chapeau est papillé ou papilleux[A 4], s'il  présente une éminence en forme de papille, non aiguë, en son centre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Morphologie conique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chapeau papillé</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est papillé ou papilleux[A 4], s'il  présente une éminence en forme de papille, non aiguë, en son centre.
 Cette morphologie se rencontre notamment dans les genres Calocybe, Armillaria ou Floccularia.
 	Schéma et exemples de sporophores à chapeau papillé
 			Chapeau papillé
 			Armillaria luteobubalina
 			Hygrocybe conica, spécimen adulte
 			Calocybe persicolor
-Chapeau umboné
-Le chapeau est umboné s'il présente une morphologie en forme d'umbon, sorte de bouclier convexe dont le centre est saillant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Morphologie conique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chapeau umboné</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est umboné s'il présente une morphologie en forme d'umbon, sorte de bouclier convexe dont le centre est saillant.
 Cette morphologie se rencontre notamment dans les genres Cortinarius, Hygrocybe et Entoloma.
 On parle parfois de chapeau subumboné, c'est-à-dire légèrement umboné dans un creux central du chapeau, comme chez certains lactaires.
 	Schéma et exemples de sporophores à chapeau umboné
@@ -575,73 +869,253 @@
 			Hygrocybe anomala
 			Entoloma turbidum
 			Entoloma sp,profil umboné
-Chapeau umboné et papillé
-Certains sporophores peuvent, en vieillissant, présenter les deux caractéristiques simultanément.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Morphologie conique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chapeau umboné et papillé</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains sporophores peuvent, en vieillissant, présenter les deux caractéristiques simultanément.
 	Exemples de sporophores à chapeau umboné et papillé
 			Espèce du genre Inocybe
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Morphologie concave</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeau déprimé
-Le chapeau du champignon est déprimé[A 5] lorsqu'il présente un léger creux central. En cas d'humidité, l'eau qui s'accumule peut modifier la couleur de la cuticule.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chapeau déprimé</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau du champignon est déprimé[A 5] lorsqu'il présente un léger creux central. En cas d'humidité, l'eau qui s'accumule peut modifier la couleur de la cuticule.
 Cette morphologie fréquente chez les Basidiomycètes se rencontre par exemple chez les Russulaceae du genre Russula ou chez le genre Lactarius.
 	Schéma et exemples de sporophores à chapeau déprimé
 			Chapeau déprimé
 			Russula
 			Clitocybe nebularis adulte
 			Lactarius theiogalus
-Chapeau ombiliqué
-Le chapeau est ombiliqué[A 6] s'il présente en son centre une forme d'ombilic ou de nombril.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Morphologie concave</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Chapeau ombiliqué</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est ombiliqué[A 6] s'il présente en son centre une forme d'ombilic ou de nombril.
 Cette morphologie se présente chez la chanterelle en tube, Hydnum umbilicatum et chez Clitocybe langei.
 	Schéma et exemples de sporophores à chapeau ombiliqué
 			Chapeau ombiliqué
 			Craterellus
 			Hydnum umbilicatum
 			Hygrocybe cantharellus
-Chapeau obconique
-Le chapeau est obconique lorsqu'il présente la forme d'un cône renversé comme chez les genres Hydnellum, comme Hydnellum scrobiculatum et Hydnellum concrescens) et le genre Pycnoporus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Morphologie concave</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Chapeau obconique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est obconique lorsqu'il présente la forme d'un cône renversé comme chez les genres Hydnellum, comme Hydnellum scrobiculatum et Hydnellum concrescens) et le genre Pycnoporus.
 	Schéma et exemples de sporophores à chapeau obconique
 			Chapeau obconique
 			Hydnellum suaveolens
 			Hydnellum concrescenschapeau obconique
 			Pycnoporus sp.
-Chapeau infundibuliforme
-Le chapeau est infundibuliforme[A 7] lorsqu'il est en forme d'entonnoir, c'est-à-dire qu'il présente un creux plus profond qu'un chapeau déprimé. Il ne faut pas le confondre avec un chapeau cornucopié ou déprimé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Morphologie concave</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Chapeau infundibuliforme</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est infundibuliforme[A 7] lorsqu'il est en forme d'entonnoir, c'est-à-dire qu'il présente un creux plus profond qu'un chapeau déprimé. Il ne faut pas le confondre avec un chapeau cornucopié ou déprimé.
 Cette morphologie se rencontre chez les clitocybes du genre Infundibulicybe, comme l'espèce Infundibulicybe geotropa, ou les Craterelles du genre Craterellus.
 	Schéma et exemples de sporophores à chapeau infundibuliforme
 			Chapeau infundibuliforme
 			Cantharellus cibarius
 			Infundibulicybe gibba
 			Craterellus infundibuliformis
-Chapeau cornucopié
-Le chapeau est cornucopié lorsqu'il présente un creux important et que son stipe (pied) est en entonoir et sinueux, lui conférant la forme d'une corne d'abondance, en latin cornucopia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Morphologie concave</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Chapeau cornucopié</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est cornucopié lorsqu'il présente un creux important et que son stipe (pied) est en entonoir et sinueux, lui conférant la forme d'une corne d'abondance, en latin cornucopia.
 Cette morphologie se rencontre surtout chez les craterelles du genre Craterellus et chez certains Pleurotus.
 	Schéma et exemples de sporophores à chapeau cornucopié
 			Chapeau cornucopié
@@ -649,21 +1123,126 @@
 			Craterellus cornucopioides (temps humide)
 			Pleurotus cornucopiae
 			Lentinellus cochleatus
-Chapeau turbiné
-Le chapeau est turbiné[A 8] quand il présente une forme de turbine verticale. Cette morphologie se présente typiquement chez certaines espèces des genres Gomphus comme Gomphus clavatus, Hydnellum et Polyporus comme Polyporus alveolaris et Panus conchatus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Morphologie concave</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Chapeau turbiné</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est turbiné[A 8] quand il présente une forme de turbine verticale. Cette morphologie se présente typiquement chez certaines espèces des genres Gomphus comme Gomphus clavatus, Hydnellum et Polyporus comme Polyporus alveolaris et Panus conchatus.
 	Schéma et exemples de sporophores à chapeau turbiné
 			Chapeau turbiné
 			Gomphus clavatus, chapeau turbiné
 			Polyporus squamosus
 			Hydnellum ferrugineum
-Chapeau pétaloïde
-Le chapeau est pétaloïde quand il présente une forme de pétale. Cette morphologie se présente typiquement chez certaines espèces du genre Hohenbuehelia et certains Pleurotus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Morphologie concave</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Chapeau pétaloïde</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est pétaloïde quand il présente une forme de pétale. Cette morphologie se présente typiquement chez certaines espèces du genre Hohenbuehelia et certains Pleurotus.
 	Schéma et exemples de sporophores à chapeau pétaloïde
 			Chapeau pétaloïde
 			Hohenbuehelia petaloides
 			Pleurotus ostreatus
-Chapeau cupuliforme
-Le chapeau est cupuliforme[A 9] lorsqu'il présente une forme de cupule, c'est-à-dire d'une petite coupe. Certains chapeaux peuvent prendre cette forme sous l'effet de la sécheresse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Morphologie concave</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Chapeau cupuliforme</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est cupuliforme[A 9] lorsqu'il présente une forme de cupule, c'est-à-dire d'une petite coupe. Certains chapeaux peuvent prendre cette forme sous l'effet de la sécheresse.
 C'est le cas notamment des pézizes, et du genre Dumontinia.
 	Exemples de sporophores à chapeau cupuliforme
 			Scutellinia scutellata
@@ -673,85 +1252,335 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Morphologie convexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeau convexe simple
-Un chapeau convexe présente  une forme bombée[A 10].
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Chapeau convexe simple</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau convexe présente  une forme bombée[A 10].
 Cette morphologie peut se rencontrer chez les Boletaceae mais aussi dans le genre Agaricus.
 	Schéma et exemples de sporophores à chapeau convexe
 			Chapeau convexe
 			Agaricus xanthodermus
 			Leccinellum albellum
 			Boletus edulis
-Chapeau cylindrique
-Un chapeau est cylindrique ou oblong, parfois allongé quand il présente une forme cylindrique aux bords grossièrement parallèles et atténuée aux deux extrémités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Morphologie convexe</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Chapeau cylindrique</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est cylindrique ou oblong, parfois allongé quand il présente une forme cylindrique aux bords grossièrement parallèles et atténuée aux deux extrémités.
 	Schéma et exemples de sporophores à chapeau cylindrique
 			Chapeau cylindrique
 			Coprinus comatus
-Chapeau sphérique
-Un chapeau est sphérique lorsqu'il présente la forme d'une boule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Morphologie convexe</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Chapeau sphérique</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est sphérique lorsqu'il présente la forme d'une boule.
 	Exemples de sporophores à chapeau sphérique
 			Morchella rotunda
 			Morchella sp.
 			Clathrus ruber spécimen adulte
 			Lycoperdon perlatum
-Chapeau pulviné
-Le chapeau est pulviné s'il présente une morphologie en forme de coussin[A 11].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Morphologie convexe</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Chapeau pulviné</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est pulviné s'il présente une morphologie en forme de coussin[A 11].
 Cette morphologie peut se rencontrer chez les Boletaceae et certaines Polyporaceae du genre Cryptoporus. Dans les genres Boletus ou Leccinum, le sporophore peut être convexe jeune et devenir pulviné adulte, l'hyménium développant ses tubes. Le genre Aphelaria peut également présenter cette morphologie chez les sujets adultes.
 	Schéma et exemples de sporophores à chapeau pulviné
 			chapeau pulviné
 			Boletus badius
 			Leccinum sp.
 			Boletus edulis
-Chapeau étalé
-Un chapeau est étalé lorsque sa face supérieure est plate[A 12]. Cette morphologie apparaît lorsque le champignon arrive à maturité, notamment dans l'ordre des Agaricales, chez Amanita muscaria par exemple. Cette morphologie apparaît parfois dans le genre Boletus par temps sec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Morphologie convexe</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Chapeau étalé</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est étalé lorsque sa face supérieure est plate[A 12]. Cette morphologie apparaît lorsque le champignon arrive à maturité, notamment dans l'ordre des Agaricales, chez Amanita muscaria par exemple. Cette morphologie apparaît parfois dans le genre Boletus par temps sec.
 	Schéma et exemples de sporophores à chapeau étalé
 			chapeau étalé
 			Russula sp.
 			Amanita sp.
 			Boletus badiusSpécimen étalé à marge relevée
 			Pholiota sp.
-Chapeau excentré
-Le chapeau est excentré ou excentrique si son stipe (pied) est décentré, c'est-à-dire si le pied du champignon n'est pas au milieu du chapeau[A 13].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Morphologie convexe</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Chapeau excentré</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est excentré ou excentrique si son stipe (pied) est décentré, c'est-à-dire si le pied du champignon n'est pas au milieu du chapeau[A 13].
 Cette morphologie se rencontre surtout chez le genre Pleurotus et certaines Polyporaceae, ainsi que chez les Ganoderma et les Auriscalpium.
 	Schéma et exemples de sporophores à chapeau excentré
 			chapeau excentré
 			Pleurotus dryinus
 			Auriscalpium vulgare
-Chapeau flabelliforme
-Un chapeau est flabelliforme s'il présente une morphologie en forme d'éventail[A 14].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Morphologie convexe</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Chapeau flabelliforme</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est flabelliforme s'il présente une morphologie en forme d'éventail[A 14].
 Cette morphologie se rencontre notamment dans le genre Pleurotus et divers genres de la famille des Polyporaceae, comme Daedaleopsis, Spongipellis, Laetiporus, Trametes et Trichaptum.
 	Schéma et exemples de sporophores à chapeau flabelliforme
 			chapeau flabelliforme
 			Pleurotus ostreatus
 			Pleurotus nebrodensis
 			Trametes suaveolens
-Chapeau gibbeux
-Un chapeau est gibbeux s'il présente une ou plusieurs bosses à sa surface, conférant souvent un aspect déséquilibré au sporophore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Morphologie convexe</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Chapeau gibbeux</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est gibbeux s'il présente une ou plusieurs bosses à sa surface, conférant souvent un aspect déséquilibré au sporophore.
 Les Inocybes possèdent une ou plusieurs bosses irrégulièrement disposées. Chez les Hydnum, les spécimens adultes de l'espèce Hydnum repandum présentent parfois de curieuses protubérances.
 	Schéma et exemples de sporophores à chapeau gibeux
 			chapeau gibbeux
@@ -762,53 +1591,163 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Morphologie crêtée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeau crêté
-Un chapeau est parfois dit crêté présente un relief saillant, en forme de crêtes. Cette morphologie se retrouve chez certains ascomycètes du genre Morchella, comme chez Morchella anatolica et Boletus thibetanus et les helvellaceae, et les gyromitres. Le terme crêté et son diminutif cristulé est généralement consacré à l'ornementation sporale, notamment chez les lactario-russulés!
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Chapeau crêté</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est parfois dit crêté présente un relief saillant, en forme de crêtes. Cette morphologie se retrouve chez certains ascomycètes du genre Morchella, comme chez Morchella anatolica et Boletus thibetanus et les helvellaceae, et les gyromitres. Le terme crêté et son diminutif cristulé est généralement consacré à l'ornementation sporale, notamment chez les lactario-russulés!
 	Exemples de sporophores à chapeau crêté
 			Morchella rotunda
 			Morchella costata
 			Leptopodia monachella
-Chapeau réticulé
-Un chapeau réticulé est nervuré comme un filet formant un réseau. La crête du réseau peut avoir une couleur différente[A 15].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Morphologie crêtée</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Chapeau réticulé</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau réticulé est nervuré comme un filet formant un réseau. La crête du réseau peut avoir une couleur différente[A 15].
 Cette morphologie se rencontre chez certains bolets, comme le bolet du Tibet, Boletus reticuloceps. Il ne faut toutefois pas confondre un chapeau réticulé avec un chapeau craquelé du fait de la sécheresse, comme chez Boletus chrysenteron.
 	Exemples de sporophores à chapeau réticulé
 			Boletus reticuloceps,chapeau réticulé à crête blanche
 			Boletus hortonii
 			Boletus chrysenteron chapeau craquelé
-Chapeau alveolé
-Un chapeau alvéolé présente de petites fosses plus ou moins régulières comme des alvéoles[A 16]. Les crêtes de ces alvéoles peuvent être d'une couleur différente. Cette morphologie se retrouve chez certains ascomycètes du genre Morchella, la famille des Phallaceae et les gyromitres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Morphologie crêtée</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Chapeau alveolé</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau alvéolé présente de petites fosses plus ou moins régulières comme des alvéoles[A 16]. Les crêtes de ces alvéoles peuvent être d'une couleur différente. Cette morphologie se retrouve chez certains ascomycètes du genre Morchella, la famille des Phallaceae et les gyromitres.
 	Exemples de sporophores à chapeau alvéolé
 			Morchella rufobrunnea chapeau alveolé à crêtes blanches
 			Morchella elata chapeau alveolé à crêtes brun foncé
 			Phallus impudicus chapeau alveolé à crêtes blanches
-Chapeau plissé
-Un chapeau est plissé lorsqu'il a une surface présentant des plis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Morphologie crêtée</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Chapeau plissé</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est plissé lorsqu'il a une surface présentant des plis.
 Cette morphologie se présente chez les basidiomycètes du genre Boletus et les ascomycètes du genre Disciotis
 	Exemples de sporophores à chapeau plissé
 			Disciotis venosa
@@ -818,46 +1757,121 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Autres morphologies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeaux coalescents
-Les chapeaux sont coalescents lorsqu'ils fusionnent pendant le développement des sporophores.
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Chapeaux coalescents</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chapeaux sont coalescents lorsqu'ils fusionnent pendant le développement des sporophores.
 	Schéma et exemples de sporophores à chapeaux coalescents
 			chapeaux coalescents
 			Hydnum repandum
-Chapeau déliquescent
-Le chapeau est déliquescent si sa bordure se désagrège progressivement à maturité et sous l'action de l'humidité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Autres morphologies</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Chapeau déliquescent</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est déliquescent si sa bordure se désagrège progressivement à maturité et sous l'action de l'humidité.
 	Exemples de sporophores à chapeau déliquescent
 			Déliquescence
 			Coprinus comatusConique et déliquescent adulte
 			Coprinus atramentariusConique et déliquescent adulte
 			Coprinus comatusÉtat déliquescent avancé
-Chapeau membraneux
-Un chapeau est membraneux s'il est réduit à la simple épaisseur de sa cuticule[A 17].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Autres morphologies</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Chapeau membraneux</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chapeau est membraneux s'il est réduit à la simple épaisseur de sa cuticule[A 17].
 Cette morphologie se rencontre notamment dans la famille des Psathyrellaceae et plus particulièrement dans le genre Parasola.
 	Schéma et exemples de sporophores à chapeau membraneux
 			chapeau membraneux
@@ -867,31 +1881,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chapeau_(champignon)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Modification de la morphologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve">La morphologie peut évoluer au cours du développement et du vieillissement du sporophore. Ainsi la même espèce peut présenter une forme différente selon son âge, jeune, à maturité ou vieux.
 On peut observer l'évolution d'un chapeau campanulé jeune pour devenir umboné adulte, ou encore un coprin qui jeune est cylindrique et deviendra conique vieux.
